--- a/biology/Botanique/Parc_des_officiers/Parc_des_officiers.xlsx
+++ b/biology/Botanique/Parc_des_officiers/Parc_des_officiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc des officiers (estonien : Ohvitseride park) est un parc du quartier Ülejõe de Tartu en Estonie.
 </t>
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé sur la pente entre Puiestee et la rue Jaama derrière l'ancienne maison des officiers.
 La superficie du parc est de 8 424 m2, il servait de jardin d'été à la Maison des Officiers, où se trouvaient, entre-autres, une piste de danse et un terrain de volley. 
 Une aire de jeux pour enfants et un jardin communautaire y sont prévus.
-Maari Soekov et Sandra Ruudu ont réalisé une peinture murale sur les murs des garages bordant le parc[1],[2],[3].
-En hiver, une piste de luge est aménagée dans le parc[2].
-Le nom du parc vient de son emplacement dans le quartier des officiers créé dans la seconde moitié des années 1950[4].
+Maari Soekov et Sandra Ruudu ont réalisé une peinture murale sur les murs des garages bordant le parc.
+En hiver, une piste de luge est aménagée dans le parc.
+Le nom du parc vient de son emplacement dans le quartier des officiers créé dans la seconde moitié des années 1950.
 </t>
         </is>
       </c>
